--- a/report_zone/Report_zone9.xlsx
+++ b/report_zone/Report_zone9.xlsx
@@ -2409,7 +2409,7 @@
       </c>
       <c r="HF2" t="inlineStr">
         <is>
-          <t>2025-05-19 05:52:06</t>
+          <t>2025-05-19 19:52:10</t>
         </is>
       </c>
     </row>
@@ -3249,7 +3249,7 @@
       </c>
       <c r="HF3" t="inlineStr">
         <is>
-          <t>2025-05-19 05:52:06</t>
+          <t>2025-05-19 19:52:10</t>
         </is>
       </c>
     </row>
@@ -4081,7 +4081,7 @@
       </c>
       <c r="HF4" t="inlineStr">
         <is>
-          <t>2025-05-19 05:52:06</t>
+          <t>2025-05-19 19:52:10</t>
         </is>
       </c>
     </row>
@@ -4921,7 +4921,7 @@
       </c>
       <c r="HF5" t="inlineStr">
         <is>
-          <t>2025-05-19 05:52:06</t>
+          <t>2025-05-19 19:52:10</t>
         </is>
       </c>
     </row>
@@ -5753,7 +5753,7 @@
       </c>
       <c r="HF6" t="inlineStr">
         <is>
-          <t>2025-05-19 05:52:06</t>
+          <t>2025-05-19 19:52:10</t>
         </is>
       </c>
     </row>
@@ -6545,7 +6545,7 @@
       <c r="HE7" t="inlineStr"/>
       <c r="HF7" t="inlineStr">
         <is>
-          <t>2025-05-19 05:52:06</t>
+          <t>2025-05-19 19:52:10</t>
         </is>
       </c>
     </row>
@@ -7377,7 +7377,7 @@
       </c>
       <c r="HF8" t="inlineStr">
         <is>
-          <t>2025-05-19 05:52:06</t>
+          <t>2025-05-19 19:52:10</t>
         </is>
       </c>
     </row>
@@ -8285,7 +8285,7 @@
       </c>
       <c r="HF9" t="inlineStr">
         <is>
-          <t>2025-05-19 05:52:06</t>
+          <t>2025-05-19 19:52:10</t>
         </is>
       </c>
     </row>
@@ -9177,7 +9177,7 @@
       </c>
       <c r="HF10" t="inlineStr">
         <is>
-          <t>2025-05-19 05:52:06</t>
+          <t>2025-05-19 19:52:10</t>
         </is>
       </c>
     </row>
@@ -10077,7 +10077,7 @@
       </c>
       <c r="HF11" t="inlineStr">
         <is>
-          <t>2025-05-19 05:52:06</t>
+          <t>2025-05-19 19:52:10</t>
         </is>
       </c>
     </row>
@@ -10985,7 +10985,7 @@
       </c>
       <c r="HF12" t="inlineStr">
         <is>
-          <t>2025-05-19 05:52:06</t>
+          <t>2025-05-19 19:52:10</t>
         </is>
       </c>
     </row>
@@ -11805,7 +11805,7 @@
       </c>
       <c r="HF13" t="inlineStr">
         <is>
-          <t>2025-05-19 05:52:06</t>
+          <t>2025-05-19 19:52:10</t>
         </is>
       </c>
     </row>
@@ -12661,7 +12661,7 @@
       </c>
       <c r="HF14" t="inlineStr">
         <is>
-          <t>2025-05-19 05:52:06</t>
+          <t>2025-05-19 19:52:10</t>
         </is>
       </c>
     </row>
@@ -13493,7 +13493,7 @@
       </c>
       <c r="HF15" t="inlineStr">
         <is>
-          <t>2025-05-19 05:52:06</t>
+          <t>2025-05-19 19:52:10</t>
         </is>
       </c>
     </row>
@@ -14401,7 +14401,7 @@
       </c>
       <c r="HF16" t="inlineStr">
         <is>
-          <t>2025-05-19 05:52:06</t>
+          <t>2025-05-19 19:52:10</t>
         </is>
       </c>
     </row>
@@ -15301,7 +15301,7 @@
       <c r="HE17" t="inlineStr"/>
       <c r="HF17" t="inlineStr">
         <is>
-          <t>2025-05-19 05:52:06</t>
+          <t>2025-05-19 19:52:10</t>
         </is>
       </c>
     </row>
@@ -16209,7 +16209,7 @@
       </c>
       <c r="HF18" t="inlineStr">
         <is>
-          <t>2025-05-19 05:52:06</t>
+          <t>2025-05-19 19:52:10</t>
         </is>
       </c>
     </row>
@@ -17021,7 +17021,7 @@
       </c>
       <c r="HF19" t="inlineStr">
         <is>
-          <t>2025-05-19 05:52:06</t>
+          <t>2025-05-19 19:52:10</t>
         </is>
       </c>
     </row>
@@ -17769,7 +17769,7 @@
       <c r="HE20" t="inlineStr"/>
       <c r="HF20" t="inlineStr">
         <is>
-          <t>2025-05-19 05:52:06</t>
+          <t>2025-05-19 19:52:10</t>
         </is>
       </c>
     </row>
@@ -18677,7 +18677,7 @@
       </c>
       <c r="HF21" t="inlineStr">
         <is>
-          <t>2025-05-19 05:52:06</t>
+          <t>2025-05-19 19:52:10</t>
         </is>
       </c>
     </row>
@@ -19585,7 +19585,7 @@
       </c>
       <c r="HF22" t="inlineStr">
         <is>
-          <t>2025-05-19 05:52:06</t>
+          <t>2025-05-19 19:52:10</t>
         </is>
       </c>
     </row>
@@ -20485,7 +20485,7 @@
       <c r="HE23" t="inlineStr"/>
       <c r="HF23" t="inlineStr">
         <is>
-          <t>2025-05-19 05:52:06</t>
+          <t>2025-05-19 19:52:10</t>
         </is>
       </c>
     </row>
@@ -21317,7 +21317,7 @@
       </c>
       <c r="HF24" t="inlineStr">
         <is>
-          <t>2025-05-19 05:52:06</t>
+          <t>2025-05-19 19:52:10</t>
         </is>
       </c>
     </row>
@@ -22149,7 +22149,7 @@
       </c>
       <c r="HF25" t="inlineStr">
         <is>
-          <t>2025-05-19 05:52:06</t>
+          <t>2025-05-19 19:52:10</t>
         </is>
       </c>
     </row>
@@ -22997,7 +22997,7 @@
       </c>
       <c r="HF26" t="inlineStr">
         <is>
-          <t>2025-05-19 05:52:06</t>
+          <t>2025-05-19 19:52:10</t>
         </is>
       </c>
     </row>
@@ -23837,7 +23837,7 @@
       </c>
       <c r="HF27" t="inlineStr">
         <is>
-          <t>2025-05-19 05:52:06</t>
+          <t>2025-05-19 19:52:10</t>
         </is>
       </c>
     </row>
@@ -24745,7 +24745,7 @@
       </c>
       <c r="HF28" t="inlineStr">
         <is>
-          <t>2025-05-19 05:52:06</t>
+          <t>2025-05-19 19:52:10</t>
         </is>
       </c>
     </row>
@@ -25665,7 +25665,7 @@
       </c>
       <c r="HF29" t="inlineStr">
         <is>
-          <t>2025-05-19 05:52:06</t>
+          <t>2025-05-19 19:52:10</t>
         </is>
       </c>
     </row>
@@ -26573,7 +26573,7 @@
       </c>
       <c r="HF30" t="inlineStr">
         <is>
-          <t>2025-05-19 05:52:06</t>
+          <t>2025-05-19 19:52:10</t>
         </is>
       </c>
     </row>
@@ -27405,7 +27405,7 @@
       </c>
       <c r="HF31" t="inlineStr">
         <is>
-          <t>2025-05-19 05:52:06</t>
+          <t>2025-05-19 19:52:10</t>
         </is>
       </c>
     </row>
@@ -28313,7 +28313,7 @@
       </c>
       <c r="HF32" t="inlineStr">
         <is>
-          <t>2025-05-19 05:52:06</t>
+          <t>2025-05-19 19:52:10</t>
         </is>
       </c>
     </row>
@@ -29225,7 +29225,7 @@
       </c>
       <c r="HF33" t="inlineStr">
         <is>
-          <t>2025-05-19 05:52:06</t>
+          <t>2025-05-19 19:52:10</t>
         </is>
       </c>
     </row>
@@ -30057,7 +30057,7 @@
       </c>
       <c r="HF34" t="inlineStr">
         <is>
-          <t>2025-05-19 05:52:06</t>
+          <t>2025-05-19 19:52:10</t>
         </is>
       </c>
     </row>
@@ -30873,7 +30873,7 @@
       <c r="HE35" t="inlineStr"/>
       <c r="HF35" t="inlineStr">
         <is>
-          <t>2025-05-19 05:52:06</t>
+          <t>2025-05-19 19:52:10</t>
         </is>
       </c>
     </row>
@@ -31781,7 +31781,7 @@
       </c>
       <c r="HF36" t="inlineStr">
         <is>
-          <t>2025-05-19 05:52:06</t>
+          <t>2025-05-19 19:52:10</t>
         </is>
       </c>
     </row>
@@ -32697,7 +32697,7 @@
       </c>
       <c r="HF37" t="inlineStr">
         <is>
-          <t>2025-05-19 05:52:06</t>
+          <t>2025-05-19 19:52:10</t>
         </is>
       </c>
     </row>
@@ -33609,7 +33609,7 @@
       </c>
       <c r="HF38" t="inlineStr">
         <is>
-          <t>2025-05-19 05:52:06</t>
+          <t>2025-05-19 19:52:10</t>
         </is>
       </c>
     </row>
@@ -34517,7 +34517,7 @@
       </c>
       <c r="HF39" t="inlineStr">
         <is>
-          <t>2025-05-19 05:52:06</t>
+          <t>2025-05-19 19:52:10</t>
         </is>
       </c>
     </row>
@@ -35429,7 +35429,7 @@
       </c>
       <c r="HF40" t="inlineStr">
         <is>
-          <t>2025-05-19 05:52:06</t>
+          <t>2025-05-19 19:52:10</t>
         </is>
       </c>
     </row>
@@ -36337,7 +36337,7 @@
       </c>
       <c r="HF41" t="inlineStr">
         <is>
-          <t>2025-05-19 05:52:06</t>
+          <t>2025-05-19 19:52:10</t>
         </is>
       </c>
     </row>
@@ -37245,7 +37245,7 @@
       </c>
       <c r="HF42" t="inlineStr">
         <is>
-          <t>2025-05-19 05:52:06</t>
+          <t>2025-05-19 19:52:10</t>
         </is>
       </c>
     </row>
@@ -38153,7 +38153,7 @@
       </c>
       <c r="HF43" t="inlineStr">
         <is>
-          <t>2025-05-19 05:52:06</t>
+          <t>2025-05-19 19:52:10</t>
         </is>
       </c>
     </row>
@@ -39061,7 +39061,7 @@
       </c>
       <c r="HF44" t="inlineStr">
         <is>
-          <t>2025-05-19 05:52:06</t>
+          <t>2025-05-19 19:52:10</t>
         </is>
       </c>
     </row>
@@ -39981,7 +39981,7 @@
       </c>
       <c r="HF45" t="inlineStr">
         <is>
-          <t>2025-05-19 05:52:06</t>
+          <t>2025-05-19 19:52:10</t>
         </is>
       </c>
     </row>
@@ -40889,7 +40889,7 @@
       </c>
       <c r="HF46" t="inlineStr">
         <is>
-          <t>2025-05-19 05:52:06</t>
+          <t>2025-05-19 19:52:10</t>
         </is>
       </c>
     </row>
@@ -41797,7 +41797,7 @@
       </c>
       <c r="HF47" t="inlineStr">
         <is>
-          <t>2025-05-19 05:52:06</t>
+          <t>2025-05-19 19:52:10</t>
         </is>
       </c>
     </row>
@@ -42705,7 +42705,7 @@
       </c>
       <c r="HF48" t="inlineStr">
         <is>
-          <t>2025-05-19 05:52:06</t>
+          <t>2025-05-19 19:52:10</t>
         </is>
       </c>
     </row>
@@ -43621,7 +43621,7 @@
       </c>
       <c r="HF49" t="inlineStr">
         <is>
-          <t>2025-05-19 05:52:06</t>
+          <t>2025-05-19 19:52:10</t>
         </is>
       </c>
     </row>
@@ -44533,7 +44533,7 @@
       </c>
       <c r="HF50" t="inlineStr">
         <is>
-          <t>2025-05-19 05:52:06</t>
+          <t>2025-05-19 19:52:10</t>
         </is>
       </c>
     </row>
@@ -45441,7 +45441,7 @@
       </c>
       <c r="HF51" t="inlineStr">
         <is>
-          <t>2025-05-19 05:52:06</t>
+          <t>2025-05-19 19:52:10</t>
         </is>
       </c>
     </row>
@@ -46349,7 +46349,7 @@
       </c>
       <c r="HF52" t="inlineStr">
         <is>
-          <t>2025-05-19 05:52:06</t>
+          <t>2025-05-19 19:52:10</t>
         </is>
       </c>
     </row>
@@ -47257,7 +47257,7 @@
       </c>
       <c r="HF53" t="inlineStr">
         <is>
-          <t>2025-05-19 05:52:06</t>
+          <t>2025-05-19 19:52:10</t>
         </is>
       </c>
     </row>
@@ -48165,7 +48165,7 @@
       </c>
       <c r="HF54" t="inlineStr">
         <is>
-          <t>2025-05-19 05:52:06</t>
+          <t>2025-05-19 19:52:10</t>
         </is>
       </c>
     </row>
@@ -49073,7 +49073,7 @@
       </c>
       <c r="HF55" t="inlineStr">
         <is>
-          <t>2025-05-19 05:52:06</t>
+          <t>2025-05-19 19:52:10</t>
         </is>
       </c>
     </row>
@@ -49981,7 +49981,7 @@
       </c>
       <c r="HF56" t="inlineStr">
         <is>
-          <t>2025-05-19 05:52:06</t>
+          <t>2025-05-19 19:52:10</t>
         </is>
       </c>
     </row>
@@ -50889,7 +50889,7 @@
       </c>
       <c r="HF57" t="inlineStr">
         <is>
-          <t>2025-05-19 05:52:06</t>
+          <t>2025-05-19 19:52:10</t>
         </is>
       </c>
     </row>
@@ -51809,7 +51809,7 @@
       </c>
       <c r="HF58" t="inlineStr">
         <is>
-          <t>2025-05-19 05:52:06</t>
+          <t>2025-05-19 19:52:10</t>
         </is>
       </c>
     </row>
@@ -52717,7 +52717,7 @@
       </c>
       <c r="HF59" t="inlineStr">
         <is>
-          <t>2025-05-19 05:52:06</t>
+          <t>2025-05-19 19:52:10</t>
         </is>
       </c>
     </row>
@@ -53625,7 +53625,7 @@
       </c>
       <c r="HF60" t="inlineStr">
         <is>
-          <t>2025-05-19 05:52:06</t>
+          <t>2025-05-19 19:52:10</t>
         </is>
       </c>
     </row>
@@ -54533,7 +54533,7 @@
       </c>
       <c r="HF61" t="inlineStr">
         <is>
-          <t>2025-05-19 05:52:06</t>
+          <t>2025-05-19 19:52:10</t>
         </is>
       </c>
     </row>
@@ -55445,7 +55445,7 @@
       </c>
       <c r="HF62" t="inlineStr">
         <is>
-          <t>2025-05-19 05:52:06</t>
+          <t>2025-05-19 19:52:10</t>
         </is>
       </c>
     </row>
@@ -56353,7 +56353,7 @@
       </c>
       <c r="HF63" t="inlineStr">
         <is>
-          <t>2025-05-19 05:52:06</t>
+          <t>2025-05-19 19:52:10</t>
         </is>
       </c>
     </row>
@@ -57261,7 +57261,7 @@
       </c>
       <c r="HF64" t="inlineStr">
         <is>
-          <t>2025-05-19 05:52:06</t>
+          <t>2025-05-19 19:52:10</t>
         </is>
       </c>
     </row>
@@ -58145,7 +58145,7 @@
       </c>
       <c r="HF65" t="inlineStr">
         <is>
-          <t>2025-05-19 05:52:06</t>
+          <t>2025-05-19 19:52:10</t>
         </is>
       </c>
     </row>
@@ -59053,7 +59053,7 @@
       </c>
       <c r="HF66" t="inlineStr">
         <is>
-          <t>2025-05-19 05:52:06</t>
+          <t>2025-05-19 19:52:10</t>
         </is>
       </c>
     </row>
@@ -59969,7 +59969,7 @@
       </c>
       <c r="HF67" t="inlineStr">
         <is>
-          <t>2025-05-19 05:52:06</t>
+          <t>2025-05-19 19:52:10</t>
         </is>
       </c>
     </row>
@@ -60889,7 +60889,7 @@
       </c>
       <c r="HF68" t="inlineStr">
         <is>
-          <t>2025-05-19 05:52:06</t>
+          <t>2025-05-19 19:52:10</t>
         </is>
       </c>
     </row>
@@ -61797,7 +61797,7 @@
       </c>
       <c r="HF69" t="inlineStr">
         <is>
-          <t>2025-05-19 05:52:06</t>
+          <t>2025-05-19 19:52:10</t>
         </is>
       </c>
     </row>
@@ -62705,7 +62705,7 @@
       </c>
       <c r="HF70" t="inlineStr">
         <is>
-          <t>2025-05-19 05:52:06</t>
+          <t>2025-05-19 19:52:10</t>
         </is>
       </c>
     </row>
@@ -63573,7 +63573,7 @@
       </c>
       <c r="HF71" t="inlineStr">
         <is>
-          <t>2025-05-19 05:52:06</t>
+          <t>2025-05-19 19:52:10</t>
         </is>
       </c>
     </row>
@@ -64481,7 +64481,7 @@
       </c>
       <c r="HF72" t="inlineStr">
         <is>
-          <t>2025-05-19 05:52:06</t>
+          <t>2025-05-19 19:52:10</t>
         </is>
       </c>
     </row>
@@ -65389,7 +65389,7 @@
       </c>
       <c r="HF73" t="inlineStr">
         <is>
-          <t>2025-05-19 05:52:06</t>
+          <t>2025-05-19 19:52:10</t>
         </is>
       </c>
     </row>
@@ -66297,7 +66297,7 @@
       </c>
       <c r="HF74" t="inlineStr">
         <is>
-          <t>2025-05-19 05:52:06</t>
+          <t>2025-05-19 19:52:10</t>
         </is>
       </c>
     </row>
@@ -67205,7 +67205,7 @@
       </c>
       <c r="HF75" t="inlineStr">
         <is>
-          <t>2025-05-19 05:52:06</t>
+          <t>2025-05-19 19:52:10</t>
         </is>
       </c>
     </row>
@@ -68113,7 +68113,7 @@
       </c>
       <c r="HF76" t="inlineStr">
         <is>
-          <t>2025-05-19 05:52:06</t>
+          <t>2025-05-19 19:52:10</t>
         </is>
       </c>
     </row>
@@ -69021,7 +69021,7 @@
       </c>
       <c r="HF77" t="inlineStr">
         <is>
-          <t>2025-05-19 05:52:06</t>
+          <t>2025-05-19 19:52:10</t>
         </is>
       </c>
     </row>
@@ -69937,7 +69937,7 @@
       </c>
       <c r="HF78" t="inlineStr">
         <is>
-          <t>2025-05-19 05:52:06</t>
+          <t>2025-05-19 19:52:10</t>
         </is>
       </c>
     </row>
@@ -70845,7 +70845,7 @@
       </c>
       <c r="HF79" t="inlineStr">
         <is>
-          <t>2025-05-19 05:52:06</t>
+          <t>2025-05-19 19:52:10</t>
         </is>
       </c>
     </row>
@@ -71753,7 +71753,7 @@
       </c>
       <c r="HF80" t="inlineStr">
         <is>
-          <t>2025-05-19 05:52:06</t>
+          <t>2025-05-19 19:52:10</t>
         </is>
       </c>
     </row>
@@ -72661,7 +72661,7 @@
       </c>
       <c r="HF81" t="inlineStr">
         <is>
-          <t>2025-05-19 05:52:06</t>
+          <t>2025-05-19 19:52:10</t>
         </is>
       </c>
     </row>
@@ -73569,7 +73569,7 @@
       </c>
       <c r="HF82" t="inlineStr">
         <is>
-          <t>2025-05-19 05:52:06</t>
+          <t>2025-05-19 19:52:10</t>
         </is>
       </c>
     </row>
@@ -74481,7 +74481,7 @@
       </c>
       <c r="HF83" t="inlineStr">
         <is>
-          <t>2025-05-19 05:52:06</t>
+          <t>2025-05-19 19:52:10</t>
         </is>
       </c>
     </row>
@@ -75389,7 +75389,7 @@
       </c>
       <c r="HF84" t="inlineStr">
         <is>
-          <t>2025-05-19 05:52:06</t>
+          <t>2025-05-19 19:52:10</t>
         </is>
       </c>
     </row>
@@ -76297,7 +76297,7 @@
       </c>
       <c r="HF85" t="inlineStr">
         <is>
-          <t>2025-05-19 05:52:06</t>
+          <t>2025-05-19 19:52:10</t>
         </is>
       </c>
     </row>
@@ -77205,7 +77205,7 @@
       </c>
       <c r="HF86" t="inlineStr">
         <is>
-          <t>2025-05-19 05:52:06</t>
+          <t>2025-05-19 19:52:10</t>
         </is>
       </c>
     </row>
@@ -78113,7 +78113,7 @@
       </c>
       <c r="HF87" t="inlineStr">
         <is>
-          <t>2025-05-19 05:52:06</t>
+          <t>2025-05-19 19:52:10</t>
         </is>
       </c>
     </row>
@@ -79029,7 +79029,7 @@
       </c>
       <c r="HF88" t="inlineStr">
         <is>
-          <t>2025-05-19 05:52:06</t>
+          <t>2025-05-19 19:52:10</t>
         </is>
       </c>
     </row>
@@ -79945,7 +79945,7 @@
       </c>
       <c r="HF89" t="inlineStr">
         <is>
-          <t>2025-05-19 05:52:06</t>
+          <t>2025-05-19 19:52:10</t>
         </is>
       </c>
     </row>
@@ -80801,7 +80801,7 @@
       </c>
       <c r="HF90" t="inlineStr">
         <is>
-          <t>2025-05-19 05:52:06</t>
+          <t>2025-05-19 19:52:10</t>
         </is>
       </c>
     </row>
@@ -81709,7 +81709,7 @@
       </c>
       <c r="HF91" t="inlineStr">
         <is>
-          <t>2025-05-19 05:52:06</t>
+          <t>2025-05-19 19:52:10</t>
         </is>
       </c>
     </row>
